--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CB5982-DDDB-45A9-8B80-202929508646}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A021CF5-0AD9-4485-9D8D-85A02CD0D535}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,20 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF8DB4E2"/>
       <name val="Calibri"/>
@@ -124,30 +110,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -170,6 +138,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -315,45 +363,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -842,78 +900,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="9"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="12"/>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A021CF5-0AD9-4485-9D8D-85A02CD0D535}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936E853-2EC1-49BA-829E-5D16DF80CA74}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -139,36 +139,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -218,6 +188,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -363,7 +424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,39 +440,50 @@
     <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -903,7 +975,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -916,87 +988,86 @@
     <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="4">
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="C2:C7"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936E853-2EC1-49BA-829E-5D16DF80CA74}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452AD76-C764-4ED5-8A82-04CC364E94DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452AD76-C764-4ED5-8A82-04CC364E94DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278C0BA-A31D-4E7F-97A2-30DCA6DC7575}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -131,17 +131,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="0"/>
       </top>
       <bottom/>
@@ -189,19 +178,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -214,10 +190,77 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -231,51 +274,91 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="0"/>
       </left>
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
+      <top style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,7 +507,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,54 +517,74 @@
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +736,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF8DB4E2"/>
       <color rgb="FFD0F3FC"/>
-      <color rgb="FF8DB4E2"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
@@ -974,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -985,89 +1088,89 @@
     <col min="5" max="5" width="2.625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="C2:C7"/>
